--- a/biology/Zoologie/Colombe_à_croissants/Colombe_à_croissants.xlsx
+++ b/biology/Zoologie/Colombe_à_croissants/Colombe_à_croissants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_croissants</t>
+          <t>Colombe_à_croissants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombe à croissants (Geotrygon mystacea) est une espèce d'oiseaux de la famille des Columbidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_croissants</t>
+          <t>Colombe_à_croissants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombe à croissant à une longueur d'environ 30 centimètres, pour une envergure pouvant atteindre à 50 centimètres. Elle pèse de 210 à 230 grammes
-Colombiné trapu, au dessus brun-vert, foncé, virant au brun-roux sur les primaires externes. Les parties latérales et postérieure du cou ont un reflet vert-bleuté métallique. La tête est vert olive sombre traversée par une ligne sous-oculaire blanche diagnostique : le croissant. L'œil jaune orange est entouré d'un cercle de peau dénudée rouge. Le bec est brun-rouge à pointe jaune. Le dessous est plus clair avec une poitrine brun rouge, ventre lie-de vin. Les pattes sont rouge-violet. La femelle est généralement juste plu sterne que le mâle[1].
+Colombiné trapu, au dessus brun-vert, foncé, virant au brun-roux sur les primaires externes. Les parties latérales et postérieure du cou ont un reflet vert-bleuté métallique. La tête est vert olive sombre traversée par une ligne sous-oculaire blanche diagnostique : le croissant. L'œil jaune orange est entouré d'un cercle de peau dénudée rouge. Le bec est brun-rouge à pointe jaune. Le dessous est plus clair avec une poitrine brun rouge, ventre lie-de vin. Les pattes sont rouge-violet. La femelle est généralement juste plu sterne que le mâle.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_croissants</t>
+          <t>Colombe_à_croissants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce granivore et frugivore, grattant le sol pour y piocher son repas. Consomme parfois de petits invertébrés. Elle passe la majorité de son temps au sol, se déplaçant préférentiellement à patte qu’en vol. Monogames d’une année sur l’autre, le couple érige plusieurs nids dans des buissons bas. La ponte de 2 œufs intervient généralement de mai à juillet en Guadeloupe[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce granivore et frugivore, grattant le sol pour y piocher son repas. Consomme parfois de petits invertébrés. Elle passe la majorité de son temps au sol, se déplaçant préférentiellement à patte qu’en vol. Monogames d’une année sur l’autre, le couple érige plusieurs nids dans des buissons bas. La ponte de 2 œufs intervient généralement de mai à juillet en Guadeloupe.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_croissants</t>
+          <t>Colombe_à_croissants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire s'étend à travers les Antilles (de Porto Rico à Sainte-Lucie). Oiseau terrestre particulièrement discret, il ne s’entend plus qu’il ne se voit. Il est inféodé aux zones forestières denses et couvertes, des montagnes de moyenne altitude jusqu’à la côte[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire s'étend à travers les Antilles (de Porto Rico à Sainte-Lucie). Oiseau terrestre particulièrement discret, il ne s’entend plus qu’il ne se voit. Il est inféodé aux zones forestières denses et couvertes, des montagnes de moyenne altitude jusqu’à la côte.
 </t>
         </is>
       </c>
